--- a/data/trans_camb/IP41-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP41-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,52; 8,2</t>
+          <t>-11,56; 8,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-27,06; -3,1</t>
+          <t>-25,77; -3,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-88,59; -74,86</t>
+          <t>-88,02; -74,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 16,37</t>
+          <t>-3,29; 17,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 17,19</t>
+          <t>-4,71; 17,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-81,71; -66,53</t>
+          <t>-81,19; -65,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 9,45</t>
+          <t>-4,93; 9,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,85; 3,76</t>
+          <t>-12,0; 3,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-82,75; -72,99</t>
+          <t>-82,75; -72,92</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,27; 10,3</t>
+          <t>-13,51; 11,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-31,87; -4,16</t>
+          <t>-30,0; -4,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 23,62</t>
+          <t>-4,08; 25,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 25,45</t>
+          <t>-6,02; 26,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 12,82</t>
+          <t>-5,89; 12,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-15,74; 5,16</t>
+          <t>-14,79; 5,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,96; -1,84</t>
+          <t>-7,97; -2,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,34; -6,72</t>
+          <t>-13,47; -7,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-95,26; -91,75</t>
+          <t>-95,27; -91,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,85; -2,68</t>
+          <t>-8,97; -2,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,02; -8,47</t>
+          <t>-14,73; -8,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-95,91; -92,39</t>
+          <t>-96,03; -92,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,78; -3,29</t>
+          <t>-7,59; -3,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-12,88; -8,29</t>
+          <t>-13,04; -8,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-95,21; -92,59</t>
+          <t>-95,15; -92,48</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-8,36; -2,05</t>
+          <t>-8,46; -2,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-14,08; -7,25</t>
+          <t>-14,27; -7,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,25; -2,89</t>
+          <t>-9,39; -2,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-15,84; -9,09</t>
+          <t>-15,35; -8,6</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1253,12 +1253,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-8,23; -3,58</t>
+          <t>-8,06; -3,59</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-13,66; -8,89</t>
+          <t>-13,71; -8,93</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 1,96</t>
+          <t>-7,14; 2,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 0,11</t>
+          <t>-8,95; 0,53</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-96,9; -90,79</t>
+          <t>-97,01; -90,8</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 8,82</t>
+          <t>-0,39; 8,37</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 2,19</t>
+          <t>-8,35; 2,28</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-94,59; -87,53</t>
+          <t>-94,75; -87,5</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 3,93</t>
+          <t>-2,79; 3,64</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 0,14</t>
+          <t>-6,87; 0,13</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-94,87; -90,57</t>
+          <t>-95,23; -90,45</t>
         </is>
       </c>
     </row>
@@ -1439,12 +1439,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 2,09</t>
+          <t>-7,49; 2,22</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-9,68; 0,12</t>
+          <t>-9,42; 0,54</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 10,01</t>
+          <t>-0,38; 9,54</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-8,85; 2,46</t>
+          <t>-8,97; 2,6</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 4,31</t>
+          <t>-2,95; 3,99</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 0,17</t>
+          <t>-7,3; 0,09</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,82; -1,74</t>
+          <t>-6,72; -1,53</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-11,62; -6,0</t>
+          <t>-11,04; -5,77</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-93,9; -90,8</t>
+          <t>-93,99; -90,74</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 0,59</t>
+          <t>-4,54; 0,53</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-9,69; -4,12</t>
+          <t>-9,94; -4,31</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-92,93; -89,08</t>
+          <t>-92,8; -89,26</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,94; -1,32</t>
+          <t>-4,88; -1,22</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-9,65; -5,77</t>
+          <t>-9,68; -5,97</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-92,93; -90,57</t>
+          <t>-92,89; -90,46</t>
         </is>
       </c>
     </row>
@@ -1655,12 +1655,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-7,24; -1,89</t>
+          <t>-7,19; -1,68</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-12,44; -6,52</t>
+          <t>-11,84; -6,23</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1670,12 +1670,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 0,63</t>
+          <t>-4,93; 0,58</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-10,5; -4,54</t>
+          <t>-10,71; -4,72</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-5,32; -1,45</t>
+          <t>-5,28; -1,33</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-10,46; -6,34</t>
+          <t>-10,48; -6,56</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">

--- a/data/trans_camb/IP41-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP41-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>6,59</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>7,08</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-74,41</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-14,05</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-82,14</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-3,97</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-78,28</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,16; 17,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,21; 17,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,6; -66,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,4; 8,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,52; -2,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,23; -74,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,24; 9,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,43; 4,03</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,23; -72,76</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,71%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,11%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,07%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -791,42 +791,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-3,98; 25,02</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-5,34; 25,91</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-13,15; 11,14</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-29,63; -2,81</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,14; 13,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,24; 5,42</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>-5,79</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-14,05</t>
+          <t>-11,58</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-82,14</t>
+          <t>-94,42</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,59</t>
+          <t>-5,17</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,08</t>
+          <t>-10,04</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-74,41</t>
+          <t>-93,61</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>-5,46</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-3,97</t>
+          <t>-10,78</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-78,28</t>
+          <t>-93,99</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,56; 8,22</t>
+          <t>-8,83; -2,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-25,77; -3,35</t>
+          <t>-14,64; -8,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-88,02; -74,6</t>
+          <t>-96,03; -92,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 17,18</t>
+          <t>-8,27; -2,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 17,89</t>
+          <t>-13,33; -6,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-81,19; -65,8</t>
+          <t>-95,36; -91,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 9,59</t>
+          <t>-7,49; -3,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,0; 3,78</t>
+          <t>-12,97; -8,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-82,75; -72,92</t>
+          <t>-95,18; -92,73</t>
         </is>
       </c>
     </row>
@@ -954,12 +954,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,71%</t>
+          <t>-6,14%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-17,11%</t>
+          <t>-12,27%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -969,12 +969,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>-5,53%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>-10,73%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -984,12 +984,12 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>-5,81%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-5,07%</t>
+          <t>-11,47%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,51; 11,41</t>
+          <t>-9,28; -2,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-30,0; -4,19</t>
+          <t>-15,4; -8,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 25,48</t>
+          <t>-8,76; -2,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 26,29</t>
+          <t>-14,21; -7,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 12,85</t>
+          <t>-7,93; -3,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-14,79; 5,1</t>
+          <t>-13,66; -9,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,17</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-10,04</t>
+          <t>-2,71</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-93,61</t>
+          <t>-91,53</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-5,79</t>
+          <t>-2,41</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-11,58</t>
+          <t>-4,39</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-94,42</t>
+          <t>-94,37</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-5,46</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-10,78</t>
+          <t>-3,46</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-93,99</t>
+          <t>-92,89</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,97; -2,25</t>
+          <t>-0,52; 7,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,47; -7,08</t>
+          <t>-7,63; 2,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-95,27; -91,7</t>
+          <t>-94,66; -87,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,97; -2,69</t>
+          <t>-6,75; 2,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,73; -8,02</t>
+          <t>-9,23; 0,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-96,03; -92,4</t>
+          <t>-96,73; -90,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,59; -3,36</t>
+          <t>-2,52; 3,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-13,04; -8,35</t>
+          <t>-7,09; 0,25</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-95,15; -92,48</t>
+          <t>-94,67; -90,06</t>
         </is>
       </c>
     </row>
@@ -1170,12 +1170,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-5,53%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-10,73%</t>
+          <t>-2,96%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1185,12 +1185,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-6,14%</t>
+          <t>-2,55%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-12,27%</t>
+          <t>-4,65%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1200,12 +1200,12 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-5,81%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-11,47%</t>
+          <t>-3,72%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1223,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-8,46; -2,44</t>
+          <t>-0,54; 8,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-14,27; -7,65</t>
+          <t>-8,19; 3,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,39; -2,86</t>
+          <t>-7,07; 2,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-15,35; -8,6</t>
+          <t>-9,62; 0,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1253,12 +1253,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-8,06; -3,59</t>
+          <t>-2,66; 4,33</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-13,71; -8,93</t>
+          <t>-7,61; 0,24</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,41</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-4,39</t>
+          <t>-6,9</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-94,37</t>
+          <t>-91,09</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,64</t>
+          <t>-4,02</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,71</t>
+          <t>-8,63</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-91,53</t>
+          <t>-92,38</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>-3,0</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-3,46</t>
+          <t>-7,79</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-92,89</t>
+          <t>-91,76</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 2,05</t>
+          <t>-4,59; 0,7</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 0,53</t>
+          <t>-9,74; -3,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-97,01; -90,8</t>
+          <t>-92,75; -89,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 8,37</t>
+          <t>-6,58; -1,52</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,35; 2,28</t>
+          <t>-11,34; -5,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-94,75; -87,5</t>
+          <t>-93,89; -90,54</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 3,64</t>
+          <t>-4,76; -1,19</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 0,13</t>
+          <t>-9,82; -5,87</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-95,23; -90,45</t>
+          <t>-92,94; -90,45</t>
         </is>
       </c>
     </row>
@@ -1386,12 +1386,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-2,55%</t>
+          <t>-2,11%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-4,65%</t>
+          <t>-7,57%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -1401,12 +1401,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>-4,36%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-2,96%</t>
+          <t>-9,34%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1416,12 +1416,12 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>-3,27%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-3,72%</t>
+          <t>-8,49%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1439,12 +1439,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 2,22</t>
+          <t>-5,01; 0,77</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 0,54</t>
+          <t>-10,58; -4,37</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 9,54</t>
+          <t>-7,05; -1,66</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-8,97; 2,6</t>
+          <t>-12,22; -6,19</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 3,99</t>
+          <t>-5,14; -1,3</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 0,09</t>
+          <t>-10,64; -6,43</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1484,237 +1484,20 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-4,1</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-8,63</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-92,38</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-1,92</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-6,9</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-91,09</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>-3,04</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>-7,79</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>-91,76</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-6,72; -1,53</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-11,04; -5,77</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-93,99; -90,74</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-4,54; 0,53</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-9,94; -4,31</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-92,8; -89,26</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>-4,88; -1,22</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>-9,68; -5,97</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>-92,89; -90,46</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-4,44%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-9,34%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-2,11%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-7,57%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>-3,32%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>-8,49%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-7,19; -1,68</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-11,84; -6,23</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-4,93; 0,58</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-10,71; -4,72</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>-5,28; -1,33</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>-10,48; -6,56</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
